--- a/server/routes/teacher-workbook.xlsx
+++ b/server/routes/teacher-workbook.xlsx
@@ -11,9 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>ФИО</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
   </si>
   <si>
     <t>Почта</t>
@@ -25,7 +31,13 @@
     <t>Количество ожидающих тестов</t>
   </si>
   <si>
-    <t>Пазюра Екатерина Васильевна</t>
+    <t>Пазюра</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Васильевна</t>
   </si>
   <si>
     <t>pazuraEV@bsu.by</t>
@@ -34,37 +46,73 @@
     <t>БГУ</t>
   </si>
   <si>
-    <t>Солодовникова Марина Леонидовна</t>
+    <t>Солодовникова</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>Леонидовна</t>
   </si>
   <si>
     <t>solodovnikovaML@bsu.by</t>
   </si>
   <si>
-    <t>Побегайло Александр Павлович</t>
+    <t>Побегайло</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Павлович</t>
   </si>
   <si>
     <t>pobegayloAP@bsu.by</t>
   </si>
   <si>
-    <t>Зенько Татьяна Алексеевна</t>
+    <t>Зенько</t>
+  </si>
+  <si>
+    <t>Татьяна</t>
+  </si>
+  <si>
+    <t>Алексеевна</t>
   </si>
   <si>
     <t>zenkoTA@bsu.by</t>
   </si>
   <si>
-    <t>Ярошеня Юлия Сергеевна</t>
+    <t>Ярошеня</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
   </si>
   <si>
     <t>yaroshenyaYS@bsu.by</t>
   </si>
   <si>
-    <t>Зубович Константин Антонович</t>
+    <t>Зубович</t>
+  </si>
+  <si>
+    <t>Константин</t>
+  </si>
+  <si>
+    <t>Антонович</t>
   </si>
   <si>
     <t>zubovichKA@bsu.by</t>
   </si>
   <si>
-    <t>Карпович Наталья Александровна</t>
+    <t>Карпович</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>Александровна</t>
   </si>
   <si>
     <t>karpovichNA@bsu.by</t>
@@ -446,13 +494,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="1" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,102 +513,150 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
